--- a/invoice_template.xlsx
+++ b/invoice_template.xlsx
@@ -1,69 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vxrin\Documents\GitHub\ScaffoldingManager\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F24869-4882-44E3-8E9A-6E599139DF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Invoice Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Invoice Number:</t>
+  </si>
+  <si>
+    <t>INV-</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Bill To:</t>
+  </si>
+  <si>
+    <t>Client Name:</t>
+  </si>
+  <si>
+    <t>Address:</t>
+  </si>
+  <si>
+    <t>Phone:</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Rate (£)</t>
+  </si>
+  <si>
+    <t>Amount (£)</t>
+  </si>
+  <si>
+    <t>Subtotal:</t>
+  </si>
+  <si>
+    <t>VAT (20%):</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Terms &amp; Conditions: Payment due within 30 days</t>
+  </si>
+  <si>
+    <t>Khalsa Scaffolding LTD</t>
+  </si>
+  <si>
+    <t>khalsascaffolding@outlook.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <sz val="9"/>
-    </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001F4E78"/>
-        <bgColor rgb="001F4E78"/>
+        <fgColor rgb="FF1F4E78"/>
+        <bgColor rgb="FF1F4E78"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E7E6E6"/>
-        <bgColor rgb="00E7E6E6"/>
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
   </fills>
@@ -76,101 +156,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -458,152 +482,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>YOUR SCAFFOLDING COMPANY</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Address Line | Phone | Email</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Invoice Number:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>INV-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Bill To:</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Client Name:</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Address:</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Phone:</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Rate (£)</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>Amount (£)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="21">
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>Subtotal:</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>VAT (20%):</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" s="6" t="inlineStr">
-        <is>
-          <t>Total:</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>Terms &amp; Conditions: Payment due within 30 days</t>
-        </is>
-      </c>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -611,6 +599,9 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A25:E25"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{94EF82DD-2DC4-4C25-9D8A-E2ACA3E331E3}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>